--- a/medicine/Psychotrope/Brasserie_Sainte-Hélène/Brasserie_Sainte-Hélène.xlsx
+++ b/medicine/Psychotrope/Brasserie_Sainte-Hélène/Brasserie_Sainte-Hélène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brasserie_Sainte-H%C3%A9l%C3%A8ne</t>
+          <t>Brasserie_Sainte-Hélène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Sainte-Hélène est une brasserie artisanale belge située à Florenville dans la commune de Florenville en Gaume, au sud de la province de Luxembourg.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brasserie_Sainte-H%C3%A9l%C3%A8ne</t>
+          <t>Brasserie_Sainte-Hélène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1999, la brasserie voit le jour à Orsinfaing (commune de Habay) dans la rue Sainte Hélène qui donnera son nom à l'établissement. Quatre années plus tard, Eddy Pourtois, brasseur autodidacte, commercialise ses premières bières. En 2003, la brasserie déménage à Virton et brasse alors la Sainte-Hélène Blonde, l'ambrée et la Triple D'Jean qui existent encore aujourd'hui sous d'autres noms. Lors d'un nouveau déménagement à Èthe en 2005, la brasserie se dote d'une installation de capacité plus importante. En 2011, associé à Raphaël Vanoudenhoven, la brasserie continue à augmenter sa production et change le graphisme de ses étiquettes[1]. En janvier 2016 la brasserie s'installe à Florenville dans un espace plus grand encore, avec salle de dégustation et accueil pour car.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1999, la brasserie voit le jour à Orsinfaing (commune de Habay) dans la rue Sainte Hélène qui donnera son nom à l'établissement. Quatre années plus tard, Eddy Pourtois, brasseur autodidacte, commercialise ses premières bières. En 2003, la brasserie déménage à Virton et brasse alors la Sainte-Hélène Blonde, l'ambrée et la Triple D'Jean qui existent encore aujourd'hui sous d'autres noms. Lors d'un nouveau déménagement à Èthe en 2005, la brasserie se dote d'une installation de capacité plus importante. En 2011, associé à Raphaël Vanoudenhoven, la brasserie continue à augmenter sa production et change le graphisme de ses étiquettes. En janvier 2016 la brasserie s'installe à Florenville dans un espace plus grand encore, avec salle de dégustation et accueil pour car.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brasserie_Sainte-H%C3%A9l%C3%A8ne</t>
+          <t>Brasserie_Sainte-Hélène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La brasserie  produit actuellement huit bières artisanales selon des méthodes traditionnelles pur malt et houblon qui sont refermentées en bouteille ou en fût, non filtrées et non pasteurisées[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La brasserie  produit actuellement huit bières artisanales selon des méthodes traditionnelles pur malt et houblon qui sont refermentées en bouteille ou en fût, non filtrées et non pasteurisées. 
 Mistinguett, une bière blonde titrant 6,5 % d'alcool.
 Lily Blue, une bière ambrée titrant 7,5 % d'alcool.
 Gypsy Rose, une bière blonde triple titrant 9 % d'alcool.
